--- a/data/trans_dic/P25_8-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_8-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida</t>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,16; 34,91</t>
+          <t>13,27; 45,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,92; 29,52</t>
+          <t>7,3; 37,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 30,24</t>
+          <t>4,96; 38,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 27,8</t>
+          <t>10,8; 40,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 30,51</t>
+          <t>6,98; 28,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 46,44</t>
+          <t>14,03; 38,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,82; 27,93</t>
+          <t>9,87; 34,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 26,31</t>
+          <t>15,11; 40,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,11; 32,81</t>
+          <t>13,41; 32,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 31,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 28,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 35,64</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 29,98</t>
+          <t>8,26; 33,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 23,32</t>
+          <t>6,77; 30,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,09; 30,75</t>
+          <t>8,55; 35,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,21; 42,58</t>
+          <t>7,89; 38,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 30,28</t>
+          <t>19,28; 42,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,89; 38,18</t>
+          <t>10,61; 31,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 32,37</t>
+          <t>14,13; 39,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 23,56</t>
+          <t>22,23; 51,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 30,31</t>
+          <t>15,54; 33,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,61; 25,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 32,73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 37,93</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>22,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,59%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 21,24</t>
+          <t>5,26; 22,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 35,46</t>
+          <t>8,45; 29,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 46,5</t>
+          <t>8,49; 28,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 31,75</t>
+          <t>13,89; 37,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 25,9</t>
+          <t>19,81; 38,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,12; 30,66</t>
+          <t>12,41; 28,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 23,69</t>
+          <t>17,34; 34,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,43; 27,33</t>
+          <t>20,26; 40,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,66; 34,5</t>
+          <t>15,92; 29,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 25,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,56; 29,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20,02; 35,78</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>29,12%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22,34%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,36; 34,8</t>
+          <t>20,78; 42,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 30,63</t>
+          <t>17,74; 36,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 28,24</t>
+          <t>10,92; 28,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,63; 35,76</t>
+          <t>13,62; 32,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 26,3</t>
+          <t>18,61; 36,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 31,98</t>
+          <t>10,0; 24,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,78; 32,94</t>
+          <t>17,8; 36,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 25,5</t>
+          <t>15,63; 32,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 28,25</t>
+          <t>22,76; 35,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 27,44</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 28,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,1; 28,75</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 29,52</t>
+          <t>7,21; 38,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 17,07</t>
+          <t>2,55; 15,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,28; 30,16</t>
+          <t>13,41; 39,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,89; 31,02</t>
+          <t>5,2; 30,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,86; 27,36</t>
+          <t>12,63; 36,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 33,68</t>
+          <t>8,57; 30,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,93; 26,4</t>
+          <t>13,66; 37,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,31; 19,37</t>
+          <t>17,75; 44,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,78; 28,41</t>
+          <t>12,37; 32,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 17,42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 35,35</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 33,01</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>28,49%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,01; 31,65</t>
+          <t>18,31; 48,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 19,53</t>
+          <t>5,14; 26,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,82; 26,33</t>
+          <t>6,65; 30,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 33,5</t>
+          <t>7,15; 31,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 21,89</t>
+          <t>14,42; 40,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 63,91</t>
+          <t>11,12; 35,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,67; 29,28</t>
+          <t>11,54; 36,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,81; 18,23</t>
+          <t>13,74; 41,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,25; 51,03</t>
+          <t>19,88; 39,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 25,83</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 27,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 32,64</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,8; 22,99</t>
+          <t>17,35; 28,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,51</t>
+          <t>12,68; 21,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,82; 25,08</t>
+          <t>13,77; 23,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,16; 27,84</t>
+          <t>14,82; 24,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,81; 21,89</t>
+          <t>21,83; 30,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,86; 33,88</t>
+          <t>16,13; 23,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,48; 24,5</t>
+          <t>19,44; 28,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,32; 20,03</t>
+          <t>23,27; 33,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,54; 28,33</t>
+          <t>20,92; 27,96</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 21,46</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 24,48</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,73; 28,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29727</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19678</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19958</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31973</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21549</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>29911</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24446</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38298</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51275</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>49589</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>44404</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>70271</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14199; 49125</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7715; 39202</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6323; 48904</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15748; 59293</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9132; 37479</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16843; 46772</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12095; 42530</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21989; 58573</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31903; 77786</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29982; 71073</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24476; 70912</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45942; 103815</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31452</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22956</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30103</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47953</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>49398</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25064</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32974</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56695</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80851</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>48019</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>63077</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>104648</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13940; 56687</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9708; 43677</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13197; 55298</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17956; 87728</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31838; 70958</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13447; 39449</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17844; 50096</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36088; 83077</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>51874; 110756</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28652; 69745</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>39747; 91850</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>61605; 147964</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20286</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21711</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24622</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42756</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>73152</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41246</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48867</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68892</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>93438</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>62957</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73490</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>111649</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8519; 35905</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11360; 38981</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11692; 39407</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25031; 66755</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>51901; 100381</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25771; 58738</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34753; 69467</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48554; 97978</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67512; 123019</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>44573; 86914</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52599; 98152</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84077; 150258</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56979</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42661</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27997</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43164</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60106</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30773</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44524</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49344</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>117086</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>73434</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72521</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>92508</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38187; 77843</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28606; 59195</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16808; 44010</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27442; 65689</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>40629; 79384</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18591; 45695</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30695; 62245</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33253; 69524</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>91511; 144232</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>53946; 95259</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>53440; 93247</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>66689; 119068</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26605</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9296</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28909</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>20844</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25790</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15761</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21215</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41331</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>52395</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25057</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>50124</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>62175</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11168; 59326</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3362; 20218</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16232; 48151</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8041; 47889</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14382; 41080</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8041; 28445</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12657; 35004</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24321; 60307</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33258; 87111</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14495; 39351</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35122; 75557</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>41070; 96282</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>34745</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11599</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13651</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>22824</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>35607</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>22006</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>24077</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48330</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>70351</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>33605</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>37728</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>71154</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>20015; 53331</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4491; 23466</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5998; 27645</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9860; 43150</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19843; 55742</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11690; 37553</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12768; 40879</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>25032; 76125</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>49080; 96360</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>20657; 49725</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22886; 56181</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>43735; 104434</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>199793</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>127902</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>145240</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>209516</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>265602</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>164760</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>196104</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>302889</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>465395</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>292661</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>341344</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>512405</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>153698; 249033</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>96869; 163192</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>108074; 185422</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>155282; 261521</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>224338; 312440</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>135410; 199568</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>160401; 231692</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>251200; 365007</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>400424; 535151</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>246641; 344056</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>290924; 393995</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>440897; 597769</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>